--- a/tableau_donnees.xlsx
+++ b/tableau_donnees.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Projet_S6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4282131-E1CF-B247-8083-1FFCABCF185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5BC5F7-BD6B-7E4E-B7BF-FBBDDE44B4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableau_donnees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,9 +43,6 @@
     <t>Niv_pop</t>
   </si>
   <si>
-    <t>Loyer (m2)</t>
-  </si>
-  <si>
     <t>Niv_loyer</t>
   </si>
   <si>
@@ -1253,6 +1259,9 @@
   </si>
   <si>
     <t>4_942</t>
+  </si>
+  <si>
+    <t>Loyer €/m2)</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2113,100 +2124,100 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -2214,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2235,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>38</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -2324,10 +2335,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2345,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>42</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -2434,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2455,13 +2466,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>46</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2544,10 +2555,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2565,13 +2576,13 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>50</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -2654,10 +2665,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2675,13 +2686,13 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>55</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -2764,10 +2775,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2785,13 +2796,13 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -2874,10 +2885,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2895,13 +2906,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>62</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -2984,10 +2995,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3005,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>66</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -3094,10 +3105,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3115,13 +3126,13 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>70</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -3204,10 +3215,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3225,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>74</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -3314,10 +3325,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3335,13 +3346,13 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>78</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -3424,10 +3435,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3445,13 +3456,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>82</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -3534,10 +3545,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3555,13 +3566,13 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
         <v>86</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3644,10 +3655,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3665,13 +3676,13 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
         <v>90</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>91</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3754,10 +3765,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
         <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3775,13 +3786,13 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
         <v>94</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>95</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3864,10 +3875,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3885,13 +3896,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>98</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>99</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3974,10 +3985,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3995,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
         <v>102</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>103</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -4084,10 +4095,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4105,13 +4116,13 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>106</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>107</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4194,10 +4205,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4215,13 +4226,13 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>110</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>111</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4304,10 +4315,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
         <v>112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4325,13 +4336,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
         <v>114</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>115</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4414,10 +4425,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4435,13 +4446,13 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>118</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>119</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4524,10 +4535,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4545,13 +4556,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>122</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>123</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -4634,10 +4645,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
         <v>124</v>
-      </c>
-      <c r="C24" t="s">
-        <v>125</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4655,13 +4666,13 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>126</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>127</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -4744,10 +4755,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
         <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4765,13 +4776,13 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
         <v>130</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>131</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -4854,10 +4865,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4875,13 +4886,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
         <v>134</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>135</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -4964,10 +4975,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
         <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4985,13 +4996,13 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
         <v>138</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>139</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -5074,10 +5085,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
         <v>140</v>
-      </c>
-      <c r="C28" t="s">
-        <v>141</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5095,13 +5106,13 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>142</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>143</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5184,10 +5195,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
         <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -5205,13 +5216,13 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
         <v>146</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>147</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -5294,10 +5305,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
         <v>148</v>
-      </c>
-      <c r="C30" t="s">
-        <v>149</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -5315,13 +5326,13 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
         <v>150</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>151</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -5404,10 +5415,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
         <v>152</v>
-      </c>
-      <c r="C31" t="s">
-        <v>153</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -5425,13 +5436,13 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
         <v>154</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31" t="s">
-        <v>155</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -5514,10 +5525,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" t="s">
-        <v>157</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5535,13 +5546,13 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>158</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>159</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -5624,10 +5635,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
         <v>160</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -5645,13 +5656,13 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
         <v>162</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>163</v>
       </c>
       <c r="L33">
         <v>3</v>
@@ -5734,10 +5745,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
         <v>164</v>
-      </c>
-      <c r="C34" t="s">
-        <v>165</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -5755,13 +5766,13 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
         <v>166</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>167</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -5844,10 +5855,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
         <v>168</v>
-      </c>
-      <c r="C35" t="s">
-        <v>169</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -5865,13 +5876,13 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
         <v>170</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
-        <v>171</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -5954,10 +5965,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
         <v>172</v>
-      </c>
-      <c r="C36" t="s">
-        <v>173</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -5975,13 +5986,13 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>174</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>175</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -6064,10 +6075,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s">
         <v>176</v>
-      </c>
-      <c r="C37" t="s">
-        <v>177</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -6085,13 +6096,13 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
         <v>178</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>179</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -6174,10 +6185,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
         <v>180</v>
-      </c>
-      <c r="C38" t="s">
-        <v>181</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -6195,13 +6206,13 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
         <v>182</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>183</v>
       </c>
       <c r="L38">
         <v>3</v>
@@ -6284,10 +6295,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
         <v>184</v>
-      </c>
-      <c r="C39" t="s">
-        <v>185</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -6305,13 +6316,13 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
+        <v>185</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
         <v>186</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>187</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -6394,10 +6405,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
         <v>188</v>
-      </c>
-      <c r="C40" t="s">
-        <v>189</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -6415,13 +6426,13 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
         <v>190</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>191</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -6504,10 +6515,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="s">
         <v>192</v>
-      </c>
-      <c r="C41" t="s">
-        <v>193</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -6525,13 +6536,13 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
         <v>194</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>195</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -6614,10 +6625,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
         <v>196</v>
-      </c>
-      <c r="C42" t="s">
-        <v>197</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6635,13 +6646,13 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
         <v>198</v>
-      </c>
-      <c r="J42">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s">
-        <v>199</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -6724,10 +6735,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
         <v>200</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -6745,13 +6756,13 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
+        <v>201</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
         <v>202</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>203</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -6834,10 +6845,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s">
         <v>204</v>
-      </c>
-      <c r="C44" t="s">
-        <v>205</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -6855,13 +6866,13 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
         <v>206</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>207</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -6944,10 +6955,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
         <v>208</v>
-      </c>
-      <c r="C45" t="s">
-        <v>209</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -6965,13 +6976,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
+        <v>209</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
         <v>210</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45" t="s">
-        <v>211</v>
       </c>
       <c r="L45">
         <v>3</v>
@@ -7054,10 +7065,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
         <v>212</v>
-      </c>
-      <c r="C46" t="s">
-        <v>213</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -7075,13 +7086,13 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
         <v>214</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
-        <v>215</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -7164,10 +7175,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
         <v>216</v>
-      </c>
-      <c r="C47" t="s">
-        <v>217</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -7185,13 +7196,13 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
+        <v>217</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
         <v>218</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>219</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -7274,10 +7285,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
         <v>220</v>
-      </c>
-      <c r="C48" t="s">
-        <v>221</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -7295,13 +7306,13 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>222</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>223</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -7384,10 +7395,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" t="s">
         <v>224</v>
-      </c>
-      <c r="C49" t="s">
-        <v>225</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -7405,13 +7416,13 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
+        <v>225</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
         <v>226</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>227</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7494,10 +7505,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" t="s">
         <v>228</v>
-      </c>
-      <c r="C50" t="s">
-        <v>229</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -7515,13 +7526,13 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
         <v>230</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>231</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7604,10 +7615,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="s">
         <v>232</v>
-      </c>
-      <c r="C51" t="s">
-        <v>233</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -7625,13 +7636,13 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
+        <v>233</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
         <v>234</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51" t="s">
-        <v>235</v>
       </c>
       <c r="L51">
         <v>3</v>
@@ -7714,10 +7725,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
         <v>236</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -7735,13 +7746,13 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
+        <v>237</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>238</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>239</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -7824,10 +7835,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" t="s">
         <v>240</v>
-      </c>
-      <c r="C53" t="s">
-        <v>241</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -7845,13 +7856,13 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
+        <v>241</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
         <v>242</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>243</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -7934,10 +7945,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
         <v>244</v>
-      </c>
-      <c r="C54" t="s">
-        <v>245</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -7955,13 +7966,13 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
+        <v>245</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
         <v>246</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-      <c r="K54" t="s">
-        <v>247</v>
       </c>
       <c r="L54">
         <v>3</v>
@@ -8044,10 +8055,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s">
         <v>248</v>
-      </c>
-      <c r="C55" t="s">
-        <v>249</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8065,13 +8076,13 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
         <v>250</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>251</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -8154,10 +8165,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="s">
         <v>252</v>
-      </c>
-      <c r="C56" t="s">
-        <v>253</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -8175,13 +8186,13 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" t="s">
         <v>254</v>
-      </c>
-      <c r="J56">
-        <v>2</v>
-      </c>
-      <c r="K56" t="s">
-        <v>255</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -8264,10 +8275,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" t="s">
         <v>256</v>
-      </c>
-      <c r="C57" t="s">
-        <v>257</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -8285,13 +8296,13 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
+        <v>257</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
         <v>258</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57" t="s">
-        <v>259</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -8374,10 +8385,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" t="s">
         <v>260</v>
-      </c>
-      <c r="C58" t="s">
-        <v>261</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8395,13 +8406,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
+        <v>261</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
         <v>262</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>263</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -8484,10 +8495,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
         <v>264</v>
-      </c>
-      <c r="C59" t="s">
-        <v>265</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -8505,13 +8516,13 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
         <v>266</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59" t="s">
-        <v>267</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -8594,10 +8605,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
         <v>268</v>
-      </c>
-      <c r="C60" t="s">
-        <v>269</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -8615,13 +8626,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
+        <v>269</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
         <v>270</v>
-      </c>
-      <c r="J60">
-        <v>2</v>
-      </c>
-      <c r="K60" t="s">
-        <v>271</v>
       </c>
       <c r="L60">
         <v>3</v>
@@ -8704,10 +8715,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" t="s">
         <v>272</v>
-      </c>
-      <c r="C61" t="s">
-        <v>273</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -8725,13 +8736,13 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
+        <v>273</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
         <v>274</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>275</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -8814,10 +8825,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
         <v>276</v>
-      </c>
-      <c r="C62" t="s">
-        <v>277</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -8835,13 +8846,13 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62" t="s">
         <v>278</v>
-      </c>
-      <c r="J62">
-        <v>3</v>
-      </c>
-      <c r="K62" t="s">
-        <v>279</v>
       </c>
       <c r="L62">
         <v>3</v>
@@ -8924,10 +8935,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" t="s">
         <v>280</v>
-      </c>
-      <c r="C63" t="s">
-        <v>281</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -8945,13 +8956,13 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
         <v>282</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63" t="s">
-        <v>283</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -9034,10 +9045,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" t="s">
         <v>284</v>
-      </c>
-      <c r="C64" t="s">
-        <v>285</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -9055,13 +9066,13 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
+        <v>285</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64" t="s">
         <v>286</v>
-      </c>
-      <c r="J64">
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>287</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -9144,10 +9155,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" t="s">
         <v>288</v>
-      </c>
-      <c r="C65" t="s">
-        <v>289</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -9165,13 +9176,13 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
+        <v>289</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
         <v>290</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
-        <v>291</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -9254,10 +9265,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" t="s">
         <v>292</v>
-      </c>
-      <c r="C66" t="s">
-        <v>293</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -9275,13 +9286,13 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
+        <v>293</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66" t="s">
         <v>294</v>
-      </c>
-      <c r="J66">
-        <v>2</v>
-      </c>
-      <c r="K66" t="s">
-        <v>295</v>
       </c>
       <c r="L66">
         <v>3</v>
@@ -9364,10 +9375,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" t="s">
         <v>296</v>
-      </c>
-      <c r="C67" t="s">
-        <v>297</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -9385,13 +9396,13 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67" t="s">
         <v>298</v>
-      </c>
-      <c r="J67">
-        <v>3</v>
-      </c>
-      <c r="K67" t="s">
-        <v>299</v>
       </c>
       <c r="L67">
         <v>3</v>
@@ -9474,10 +9485,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" t="s">
         <v>300</v>
-      </c>
-      <c r="C68" t="s">
-        <v>301</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -9495,13 +9506,13 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
+        <v>301</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68" t="s">
         <v>302</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68" t="s">
-        <v>303</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -9584,10 +9595,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" t="s">
         <v>304</v>
-      </c>
-      <c r="C69" t="s">
-        <v>305</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -9605,13 +9616,13 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
+        <v>305</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
         <v>306</v>
-      </c>
-      <c r="J69">
-        <v>4</v>
-      </c>
-      <c r="K69" t="s">
-        <v>307</v>
       </c>
       <c r="L69">
         <v>3</v>
@@ -9694,10 +9705,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" t="s">
         <v>308</v>
-      </c>
-      <c r="C70" t="s">
-        <v>309</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -9715,13 +9726,13 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
+        <v>309</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
         <v>310</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" t="s">
-        <v>311</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -9804,10 +9815,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" t="s">
         <v>312</v>
-      </c>
-      <c r="C71" t="s">
-        <v>313</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -9825,13 +9836,13 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
+        <v>313</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
         <v>314</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
-        <v>315</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -9914,10 +9925,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" t="s">
         <v>316</v>
-      </c>
-      <c r="C72" t="s">
-        <v>317</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -9935,13 +9946,13 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -10024,10 +10035,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
         <v>319</v>
-      </c>
-      <c r="C73" t="s">
-        <v>320</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -10045,13 +10056,13 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
+        <v>320</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>321</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>322</v>
       </c>
       <c r="L73">
         <v>3</v>
@@ -10134,10 +10145,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" t="s">
         <v>323</v>
-      </c>
-      <c r="C74" t="s">
-        <v>324</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -10155,13 +10166,13 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
+        <v>324</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74" t="s">
         <v>325</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
-      </c>
-      <c r="K74" t="s">
-        <v>326</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -10244,10 +10255,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75" t="s">
         <v>327</v>
-      </c>
-      <c r="C75" t="s">
-        <v>328</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -10265,13 +10276,13 @@
         <v>5</v>
       </c>
       <c r="I75" t="s">
+        <v>328</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
         <v>329</v>
-      </c>
-      <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75" t="s">
-        <v>330</v>
       </c>
       <c r="L75">
         <v>4</v>
@@ -10354,10 +10365,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76" t="s">
         <v>331</v>
-      </c>
-      <c r="C76" t="s">
-        <v>332</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -10375,13 +10386,13 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76" t="s">
         <v>333</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76" t="s">
-        <v>334</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -10464,10 +10475,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" t="s">
         <v>335</v>
-      </c>
-      <c r="C77" t="s">
-        <v>336</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -10485,13 +10496,13 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
+        <v>336</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
         <v>337</v>
-      </c>
-      <c r="J77">
-        <v>3</v>
-      </c>
-      <c r="K77" t="s">
-        <v>338</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -10574,10 +10585,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" t="s">
         <v>339</v>
-      </c>
-      <c r="C78" t="s">
-        <v>340</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -10595,13 +10606,13 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
+        <v>340</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78" t="s">
         <v>341</v>
-      </c>
-      <c r="J78">
-        <v>3</v>
-      </c>
-      <c r="K78" t="s">
-        <v>342</v>
       </c>
       <c r="L78">
         <v>3</v>
@@ -10684,10 +10695,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" t="s">
         <v>343</v>
-      </c>
-      <c r="C79" t="s">
-        <v>344</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -10705,13 +10716,13 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
+        <v>344</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
         <v>345</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" t="s">
-        <v>346</v>
       </c>
       <c r="L79">
         <v>3</v>
@@ -10794,10 +10805,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" t="s">
         <v>347</v>
-      </c>
-      <c r="C80" t="s">
-        <v>348</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -10815,13 +10826,13 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
+        <v>348</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
         <v>349</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>350</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -10904,10 +10915,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
+        <v>350</v>
+      </c>
+      <c r="C81" t="s">
         <v>351</v>
-      </c>
-      <c r="C81" t="s">
-        <v>352</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -10925,13 +10936,13 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
+        <v>352</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
         <v>353</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>354</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -11014,10 +11025,10 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" t="s">
         <v>355</v>
-      </c>
-      <c r="C82" t="s">
-        <v>356</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -11035,13 +11046,13 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
         <v>357</v>
-      </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
-        <v>358</v>
       </c>
       <c r="L82">
         <v>4</v>
@@ -11124,10 +11135,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" t="s">
         <v>359</v>
-      </c>
-      <c r="C83" t="s">
-        <v>360</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -11145,13 +11156,13 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
+        <v>360</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83" t="s">
         <v>361</v>
-      </c>
-      <c r="J83">
-        <v>3</v>
-      </c>
-      <c r="K83" t="s">
-        <v>362</v>
       </c>
       <c r="L83">
         <v>3</v>
@@ -11234,10 +11245,10 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" t="s">
         <v>363</v>
-      </c>
-      <c r="C84" t="s">
-        <v>364</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -11255,13 +11266,13 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
+        <v>364</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84" t="s">
         <v>365</v>
-      </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84" t="s">
-        <v>366</v>
       </c>
       <c r="L84">
         <v>3</v>
@@ -11344,10 +11355,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" t="s">
         <v>367</v>
-      </c>
-      <c r="C85" t="s">
-        <v>368</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -11365,13 +11376,13 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
+        <v>368</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
         <v>369</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" t="s">
-        <v>370</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -11454,10 +11465,10 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
+        <v>370</v>
+      </c>
+      <c r="C86" t="s">
         <v>371</v>
-      </c>
-      <c r="C86" t="s">
-        <v>372</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -11475,13 +11486,13 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
+        <v>372</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
         <v>373</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" t="s">
-        <v>374</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -11564,10 +11575,10 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
+        <v>374</v>
+      </c>
+      <c r="C87" t="s">
         <v>375</v>
-      </c>
-      <c r="C87" t="s">
-        <v>376</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -11585,13 +11596,13 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
+        <v>376</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
         <v>377</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" t="s">
-        <v>378</v>
       </c>
       <c r="L87">
         <v>3</v>
@@ -11674,10 +11685,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C88" t="s">
         <v>379</v>
-      </c>
-      <c r="C88" t="s">
-        <v>380</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -11695,13 +11706,13 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
+        <v>380</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
         <v>381</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88" t="s">
-        <v>382</v>
       </c>
       <c r="L88">
         <v>3</v>
@@ -11784,10 +11795,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
+        <v>382</v>
+      </c>
+      <c r="C89" t="s">
         <v>383</v>
-      </c>
-      <c r="C89" t="s">
-        <v>384</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -11805,13 +11816,13 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
+        <v>384</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
         <v>385</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
-        <v>386</v>
       </c>
       <c r="L89">
         <v>3</v>
@@ -11894,10 +11905,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" t="s">
         <v>387</v>
-      </c>
-      <c r="C90" t="s">
-        <v>388</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -11915,13 +11926,13 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
+        <v>388</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
         <v>389</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
-        <v>390</v>
       </c>
       <c r="L90">
         <v>4</v>
@@ -12004,10 +12015,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
+        <v>390</v>
+      </c>
+      <c r="C91" t="s">
         <v>391</v>
-      </c>
-      <c r="C91" t="s">
-        <v>392</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -12025,13 +12036,13 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
+        <v>392</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91" t="s">
         <v>393</v>
-      </c>
-      <c r="J91">
-        <v>5</v>
-      </c>
-      <c r="K91" t="s">
-        <v>394</v>
       </c>
       <c r="L91">
         <v>5</v>
@@ -12114,10 +12125,10 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
+        <v>394</v>
+      </c>
+      <c r="C92" t="s">
         <v>395</v>
-      </c>
-      <c r="C92" t="s">
-        <v>396</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -12135,13 +12146,13 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
+        <v>396</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92" t="s">
         <v>397</v>
-      </c>
-      <c r="J92">
-        <v>4</v>
-      </c>
-      <c r="K92" t="s">
-        <v>398</v>
       </c>
       <c r="L92">
         <v>3</v>
@@ -12224,10 +12235,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
+        <v>398</v>
+      </c>
+      <c r="C93" t="s">
         <v>399</v>
-      </c>
-      <c r="C93" t="s">
-        <v>400</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -12245,13 +12256,13 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
+        <v>400</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93" t="s">
         <v>401</v>
-      </c>
-      <c r="J93">
-        <v>4</v>
-      </c>
-      <c r="K93" t="s">
-        <v>402</v>
       </c>
       <c r="L93">
         <v>3</v>
@@ -12334,10 +12345,10 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
+        <v>402</v>
+      </c>
+      <c r="C94" t="s">
         <v>403</v>
-      </c>
-      <c r="C94" t="s">
-        <v>404</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -12355,13 +12366,13 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
+        <v>404</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94" t="s">
         <v>405</v>
-      </c>
-      <c r="J94">
-        <v>3</v>
-      </c>
-      <c r="K94" t="s">
-        <v>406</v>
       </c>
       <c r="L94">
         <v>3</v>
@@ -12444,10 +12455,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
+        <v>406</v>
+      </c>
+      <c r="C95" t="s">
         <v>407</v>
-      </c>
-      <c r="C95" t="s">
-        <v>408</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -12465,13 +12476,13 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
+        <v>408</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95" t="s">
         <v>409</v>
-      </c>
-      <c r="J95">
-        <v>3</v>
-      </c>
-      <c r="K95" t="s">
-        <v>410</v>
       </c>
       <c r="L95">
         <v>3</v>
